--- a/main/static/records/Grade5.xlsx
+++ b/main/static/records/Grade5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t xml:space="preserve">RFID NUMBER</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0025</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007081552</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">09982960765</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0186</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007081553</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t xml:space="preserve">09486620992</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0146</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007081529</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t xml:space="preserve">09506694282</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0052</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007081530</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t xml:space="preserve">09754378236</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0029</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007087461</t>
   </si>
   <si>
@@ -169,6 +184,9 @@
     <t xml:space="preserve">09100259758</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0074</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007087368</t>
   </si>
   <si>
@@ -190,6 +208,9 @@
     <t xml:space="preserve">09487630195</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0076</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007087367</t>
   </si>
   <si>
@@ -211,6 +232,9 @@
     <t xml:space="preserve">09334245188</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0072</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007081507</t>
   </si>
   <si>
@@ -232,6 +256,9 @@
     <t xml:space="preserve">09077146594</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0095</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007081508</t>
   </si>
   <si>
@@ -253,6 +280,9 @@
     <t xml:space="preserve">09074244918</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0090</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007082882</t>
   </si>
   <si>
@@ -272,6 +302,9 @@
   </si>
   <si>
     <t xml:space="preserve">09127464448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-0005</t>
   </si>
 </sst>
 </file>
@@ -482,6 +515,32 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -550,22 +609,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,263 +675,296 @@
       <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I4" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I5" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I6" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I7" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I10" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,6 +1148,11 @@
       <c r="G32" s="15"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="16-" dxfId="0"/>
+    <cfRule type="containsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="1"/>
+    <cfRule type="containsText" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="16-" dxfId="2"/>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
